--- a/gestion-talento-web/src/main/resources/static/files/PlantillaCargaMasiva.xlsx
+++ b/gestion-talento-web/src/main/resources/static/files/PlantillaCargaMasiva.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desarrollo\Proyecto\gestion-talento-web\src\main\resources\static\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desarrollo\Proyecto\Proyecto\gestion-talento-web\src\main\resources\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,47 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Tipo Documento</t>
+  </si>
+  <si>
+    <t>Primer nombre</t>
+  </si>
+  <si>
+    <t>Segundo Nombre</t>
+  </si>
+  <si>
+    <t>Primer Apellido</t>
+  </si>
+  <si>
+    <t>Segundo Apellido</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Correo Electronico</t>
+  </si>
+  <si>
+    <t>Numero de documento</t>
+  </si>
+  <si>
+    <t>Codigo usuario</t>
+  </si>
+  <si>
+    <t>Jefe</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Tipo Usuario</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54,8 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,12 +380,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gestion-talento-web/src/main/resources/static/files/PlantillaCargaMasiva.xlsx
+++ b/gestion-talento-web/src/main/resources/static/files/PlantillaCargaMasiva.xlsx
@@ -66,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,16 +74,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1B5587"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,13 +104,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1B5587"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF1B5587"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1B5587"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF1B5587"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -106,6 +137,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF1B5587"/>
+      <color rgb="FF1C76E4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -383,7 +420,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,45 +434,45 @@
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
     <col min="12" max="12" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1"/>
@@ -443,5 +480,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>